--- a/07_Project_Capstone_Arvato-Bertelsmann/data/concept.xlsx
+++ b/07_Project_Capstone_Arvato-Bertelsmann/data/concept.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/robin_wesselmann_zf_com/Documents/Desktop/Udacity_DataScientist_Class/07_Project_Capstone_Arvato-Bertelsmann/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z635177\OneDrive - ZF Friedrichshafen AG\Desktop\Udacity_DataScientist_Class\07_Project_Capstone_Arvato-Bertelsmann\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{723A4C71-F861-443F-9357-F2DAB68EE4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4343AB-A4DA-4481-9F85-23D684469A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{525E5AD0-F98D-4885-A96B-0DC5D28A960A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{525E5AD0-F98D-4885-A96B-0DC5D28A960A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="CUSTOMER_SEGMENTATION" sheetId="1" r:id="rId1"/>
+    <sheet name="SUPERVISED_LEARNING" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -75,6 +89,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3333FF"/>
+      <color rgb="FF65F117"/>
       <color rgb="FF000000"/>
       <color rgb="FFFF8F8F"/>
     </mruColors>
@@ -2078,6 +2094,4663 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rechteck: abgerundete Ecken 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F593D9CD-80A0-6D1B-72D5-EE5954846113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285874" y="2047875"/>
+          <a:ext cx="2543175" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Udacity_MAILOUT_052018_TRAIN.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rechteck: abgerundete Ecken 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA5FAA3-B0BD-B82B-BF14-AA0BD7588E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1752600"/>
+          <a:ext cx="1514475" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X_train</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rechteck: abgerundete Ecken 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28DAF81-449E-4676-9DAF-5E393D58F428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="2419350"/>
+          <a:ext cx="1514475" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y_train</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rechteck: abgerundete Ecken 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12933E12-3F90-47A6-9DC1-ED3392FB5678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162676" y="1714500"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Replace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> unknown values</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rechteck: abgerundete Ecken 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBED4D7-D973-48B2-8762-BE7A03660C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162676" y="2447925"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Drop specific</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rechteck: abgerundete Ecken 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A466E98C-CE8A-47F0-87B5-FEEA5CE78AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581901" y="1704975"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rechteck: abgerundete Ecken 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8959B0CB-FEF8-4988-A521-03DFDC69B735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581901" y="2428875"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle high</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> correlation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rechteck: abgerundete Ecken 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54B9FC9-EE0D-4A75-A46F-F73A7EB67F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001126" y="1704975"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Process youth years</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rechteck: abgerundete Ecken 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18E9632-51F3-4E91-A276-0BDC8356F669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001126" y="2419350"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Impute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing data</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rechteck: abgerundete Ecken 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8105F9B9-A921-49B5-B7C5-9BE5640BCFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410826" y="1704975"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Encode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Features</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rechteck: abgerundete Ecken 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EDE192-E081-48DA-B720-D93EEBDEA5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410826" y="2409825"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scaling Features</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556354</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80562</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rechteck: abgerundete Ecken 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E418F3DC-882F-419E-A492-F20097DD5ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13122468" y="2067384"/>
+          <a:ext cx="1199690" cy="512743"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172139</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rechteck 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117C2F06-A741-E78D-0B4C-5ECD534F7C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4065339" y="1621316"/>
+          <a:ext cx="10348396" cy="1449865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2683299" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Textfeld 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EB5DD7-07A1-9195-754E-4169B7300FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="1333500"/>
+          <a:ext cx="2683299" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Preprocessing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / ML Crossvalidation Pipeline</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Gerade Verbindung mit Pfeil 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A70897-1816-0283-B271-1AE4AF6AD751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762751" y="2219325"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Verbinder: gewinkelt 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FA1989-5686-21FC-4D25-42FB41893BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7362825" y="1957388"/>
+          <a:ext cx="219076" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Verbinder: gewinkelt 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53A8135-320D-40AE-916A-C5A8D4AC1E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8782050" y="1957388"/>
+          <a:ext cx="219076" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Verbinder: gewinkelt 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697ABE9-53EC-4F40-BE84-BF69ADAE9420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10201275" y="1957388"/>
+          <a:ext cx="209551" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D872C6B9-05E7-456F-8B46-370836DEDBCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181976" y="2209800"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Gerade Verbindung mit Pfeil 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2510B32D-EA9A-470A-8D13-464BA2FB8043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601201" y="2209800"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Gerade Verbindung mit Pfeil 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224FF1F4-AD14-45BB-BE4F-96287BC8B708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010901" y="2209800"/>
+          <a:ext cx="0" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Verbinder: gewinkelt 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C04133A-EE53-46E9-AAB4-5A54ECFD3C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5686425" y="1966913"/>
+          <a:ext cx="476251" cy="671512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Gerade Verbindung mit Pfeil 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FEE580-901C-4D08-914B-29A576C916A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5676900" y="1966913"/>
+          <a:ext cx="485776" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>634390</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>653440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rechteck 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1579C60-2925-431F-613E-557D295892FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14875986" y="1931395"/>
+          <a:ext cx="1694532" cy="822822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172139</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>634390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Gerade Verbindung mit Pfeil 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514F5F8D-E3D9-264E-C2F0-CDB0853EF719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14413735" y="2342806"/>
+          <a:ext cx="462251" cy="3443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Verbinder: gewinkelt 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8F18AA-8F84-4CBF-AC8C-EB51756F38CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3829049" y="1971675"/>
+          <a:ext cx="333376" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Verbinder: gewinkelt 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1110622-71AB-4336-94D0-A23AD73563ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829049" y="2295525"/>
+          <a:ext cx="342901" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558190</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619080" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Textfeld 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AAD268-788B-4623-BC37-157E07FCC090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14799786" y="1681105"/>
+          <a:ext cx="619080" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Metrics</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Ellipse 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E70EFE-6594-CC56-CD0F-D7E713FE345A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="1276350"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rechteck: abgerundete Ecken 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611C1B62-3F6F-401D-8E34-99C01D87C796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209674" y="4152900"/>
+          <a:ext cx="2543175" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Udacity_MAILOUT_052018_TRAIN.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rechteck: abgerundete Ecken 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1A7845-FDC9-482E-BA62-569FD401194C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="3857625"/>
+          <a:ext cx="1514475" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X_train</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rechteck: abgerundete Ecken 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E08C44-4570-4E9B-A435-A8A4DF572B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="4524375"/>
+          <a:ext cx="1514475" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y_train</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rechteck: abgerundete Ecken 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF0F233-41E7-4DB0-8A8F-C6573EBEFEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086476" y="3819525"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Replace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> unknown values</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rechteck: abgerundete Ecken 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA181D9F-A5D0-4FB0-AA7A-12FBA6C1E030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086476" y="4552950"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Drop specific</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rechteck: abgerundete Ecken 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF90897-B5A6-474F-B9E9-38E6B8FE7317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505701" y="3810000"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rechteck: abgerundete Ecken 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16737FEF-EC2F-4E5D-8D79-FF48E9680856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505701" y="4533900"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle high</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> correlation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rechteck: abgerundete Ecken 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BA720A-B639-4559-A7B5-C1AABDA6C0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924926" y="3810000"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Process youth years</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rechteck: abgerundete Ecken 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D776407-576C-47A8-A382-96A1A8450720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924926" y="4524375"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Impute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing data</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rechteck: abgerundete Ecken 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E1E62A-12AE-4E5A-B13D-B7E74CFAE33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334626" y="3810000"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Encode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Features</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rechteck: abgerundete Ecken 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04FE50F-6FDE-4718-860E-C2FC900F240B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334626" y="4514850"/>
+          <a:ext cx="1200149" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scaling Features</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556354</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80562</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rechteck: abgerundete Ecken 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24517AED-AB9B-4D4E-ABC8-C949939BAD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13122468" y="4205689"/>
+          <a:ext cx="1199690" cy="512743"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rechteck 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFBD94B-EAB1-4C54-8949-B03855241178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3989139" y="3758014"/>
+          <a:ext cx="10436072" cy="1449866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3561809" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Textfeld 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E0B88C-C8D9-4126-855D-34CC732A7319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="3438525"/>
+          <a:ext cx="3561809" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Preprocessing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> / ML Pipeline </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Crossvalidation + Gridsearch)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Gerade Verbindung mit Pfeil 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AD0A08-EAE4-4F97-B210-32C82AB2AD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686551" y="4324350"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Verbinder: gewinkelt 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FAEDE9-469F-4FA5-BD52-5F1BAE0460E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286625" y="4062413"/>
+          <a:ext cx="219076" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Verbinder: gewinkelt 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CDB43-1751-46D3-A870-34AAAE501E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8705850" y="4062413"/>
+          <a:ext cx="219076" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Verbinder: gewinkelt 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423853F9-57AD-4EB6-B643-170BECB1B7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="3"/>
+          <a:endCxn id="98" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10125075" y="4062413"/>
+          <a:ext cx="209551" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Gerade Verbindung mit Pfeil 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BFFC07-3B3D-4C71-AD73-07EF1AC54C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="2"/>
+          <a:endCxn id="95" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105776" y="4314825"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Gerade Verbindung mit Pfeil 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701D57DA-8739-45FB-8E33-34FBD3C7086A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="97" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="4314825"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Gerade Verbindung mit Pfeil 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBF74A-8BB5-49F9-BAFD-4251C83AFDA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="4314825"/>
+          <a:ext cx="0" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Verbinder: gewinkelt 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A06937C-09FC-40DE-9485-F80B3EECE6D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5610225" y="4071938"/>
+          <a:ext cx="476251" cy="671512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Gerade Verbindung mit Pfeil 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AF08E7-4101-4F54-8934-F8231CFC58D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5600700" y="4071938"/>
+          <a:ext cx="485776" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558190</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>577240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rechteck 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430920E4-F5EB-4946-9C20-DE79696C6206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14799786" y="4068093"/>
+          <a:ext cx="1694532" cy="820183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183615</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558190</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Gerade Verbindung mit Pfeil 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99473A53-1DEF-4DF8-A658-B1E74E9BDC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="3"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14425211" y="4478185"/>
+          <a:ext cx="374575" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Verbinder: gewinkelt 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ED1781-65BA-43E9-BD6F-08B239355845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3752849" y="4076700"/>
+          <a:ext cx="333376" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Verbinder: gewinkelt 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906BDD75-E591-48CE-ACC1-9A1173286AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752849" y="4400550"/>
+          <a:ext cx="342901" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>481990</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="922240" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Textfeld 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E3B433-DD4E-47F5-A049-4EF653A76AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14723586" y="3815164"/>
+          <a:ext cx="922240" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Final Metrics</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Ellipse 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37F0D43-49EF-4729-BA2A-285989A79BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="3381375"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88823</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>221714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rechteck: abgerundete Ecken 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F880D8C1-7B9C-6B73-9EF8-F99C5A4A8D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16843642" y="1747780"/>
+          <a:ext cx="970632" cy="1082637"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="65F117">
+            <a:alpha val="27843"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Choice of model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529615</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Pfeil: nach rechts 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A1A5F7-3D53-1AF1-501C-AEE725DD9716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16446693" y="2048334"/>
+          <a:ext cx="495300" cy="489911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580915</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1126847" cy="578885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Textfeld 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C29546-2B98-41E2-8919-279F6D75DFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13147029" y="560368"/>
+          <a:ext cx="1126847" cy="578885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Multiple Models</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>in For Loop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306598</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>318458</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Gerade Verbindung mit Pfeil 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313C8544-975F-C405-48B3-4295363D2AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13710453" y="1139253"/>
+          <a:ext cx="11860" cy="928131"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>318458</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>574139</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166172</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Verbinder: gewinkelt 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6234A22-D37A-45B4-A010-3894526B8413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="2"/>
+          <a:endCxn id="100" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14838000" y="1714731"/>
+          <a:ext cx="1375272" cy="3606645"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38216</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400165</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck: abgerundete Ecken 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB946F98-E38E-482D-909C-6BAD81992A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11766589" y="2060728"/>
+          <a:ext cx="1199690" cy="512743"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Undersampling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638061</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129908</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Verbinder: gewinkelt 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49181F7-4B46-4CCA-8387-47CF8F1289B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11605008" y="2573471"/>
+          <a:ext cx="761426" cy="127039"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400165</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556354</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE78D7C-24CD-4958-B5B1-D355308B16C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12966279" y="2317100"/>
+          <a:ext cx="156189" cy="6656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38216</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400165</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rechteck: abgerundete Ecken 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE49810-878E-4D73-9424-3D5C19D3B98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11766589" y="4205689"/>
+          <a:ext cx="1199690" cy="512743"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Undersampling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638061</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Verbinder: gewinkelt 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03156-0333-497C-BCD2-A93B38E4E2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="3"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11528808" y="4718432"/>
+          <a:ext cx="837626" cy="116137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400165</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556354</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D7C676-A3CD-4EC8-B35F-BBA8B0D59E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="100" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12966279" y="4462061"/>
+          <a:ext cx="156189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2380,7 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E88715E-8548-4B53-AF75-46E96E452561}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2389,4 +7062,23 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1610DD-F345-4072-B07D-F1FC8168FBD7}">
+  <dimension ref="H32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="32" spans="8:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/07_Project_Capstone_Arvato-Bertelsmann/data/concept.xlsx
+++ b/07_Project_Capstone_Arvato-Bertelsmann/data/concept.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z635177\OneDrive - ZF Friedrichshafen AG\Desktop\Udacity_DataScientist_Class\07_Project_Capstone_Arvato-Bertelsmann\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4343AB-A4DA-4481-9F85-23D684469A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00299E2E-87C8-40FF-BEF5-5A6BD45685B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{525E5AD0-F98D-4885-A96B-0DC5D28A960A}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER_SEGMENTATION" sheetId="1" r:id="rId1"/>
     <sheet name="SUPERVISED_LEARNING" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2102,15 +2099,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:colOff>746289</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:rowOff>86610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>432059</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2125,8 +2122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285874" y="2047875"/>
-          <a:ext cx="2543175" cy="495300"/>
+          <a:off x="1580954" y="2030888"/>
+          <a:ext cx="1355100" cy="482633"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2185,7 +2182,38 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Udacity_MAILOUT_052018_TRAIN.csv</a:t>
+            <a:t>Udacity_MAILOUT_</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>052018_TRAIN.csv</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2194,8 +2222,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687371</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -2218,8 +2246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="1752600"/>
-          <a:ext cx="1514475" cy="438150"/>
+          <a:off x="4860696" y="1714598"/>
+          <a:ext cx="794994" cy="425483"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2264,8 +2292,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>667732</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -2288,8 +2316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="2419350"/>
-          <a:ext cx="1514475" cy="438150"/>
+          <a:off x="4841057" y="2364459"/>
+          <a:ext cx="824158" cy="429705"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3055,8 +3083,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510618</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -3079,8 +3107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4065339" y="1621316"/>
-          <a:ext cx="10348396" cy="1449865"/>
+          <a:off x="4683943" y="1566421"/>
+          <a:ext cx="9677500" cy="1394970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,8 +3152,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568850</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -3143,7 +3171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="1333500"/>
+          <a:off x="4742175" y="1303943"/>
           <a:ext cx="2683299" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3586,13 +3614,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>155051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3610,8 +3638,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5686425" y="1966913"/>
-          <a:ext cx="476251" cy="671512"/>
+          <a:off x="5665215" y="1922577"/>
+          <a:ext cx="472716" cy="656735"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3644,13 +3672,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>155051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>159814</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3668,8 +3696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5676900" y="1966913"/>
-          <a:ext cx="485776" cy="4762"/>
+          <a:off x="5655690" y="1922577"/>
+          <a:ext cx="482241" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3698,13 +3726,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>634390</xdr:colOff>
+      <xdr:colOff>310342</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>653440</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255308</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3721,8 +3749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14875986" y="1931395"/>
-          <a:ext cx="1694532" cy="822822"/>
+          <a:off x="14499646" y="1862776"/>
+          <a:ext cx="779631" cy="788513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3775,13 +3803,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>172139</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>139433</xdr:rowOff>
+      <xdr:rowOff>136002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>634390</xdr:colOff>
+      <xdr:colOff>310342</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3799,8 +3827,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14413735" y="2342806"/>
-          <a:ext cx="462251" cy="3443"/>
+          <a:off x="14361443" y="2257033"/>
+          <a:ext cx="138203" cy="6873"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3828,16 +3856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210627</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>153774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>667732</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3849,14 +3877,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="35" idx="1"/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3829049" y="1971675"/>
-          <a:ext cx="333376" cy="323850"/>
+        <a:xfrm>
+          <a:off x="4383952" y="2274805"/>
+          <a:ext cx="457105" cy="304507"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3886,16 +3914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210627</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687371</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>153774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3907,14 +3935,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="36" idx="1"/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3829049" y="2295525"/>
-          <a:ext cx="342901" cy="342900"/>
+        <a:xfrm flipV="1">
+          <a:off x="4383952" y="1927340"/>
+          <a:ext cx="476744" cy="347465"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3945,7 +3973,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>558190</xdr:colOff>
+      <xdr:colOff>234142</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -3963,7 +3991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14799786" y="1681105"/>
+          <a:off x="14423446" y="1619348"/>
           <a:ext cx="619080" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4003,15 +4031,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604425</xdr:colOff>
+      <xdr:colOff>774669</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>192004</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>80550</xdr:rowOff>
+      <xdr:rowOff>51092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4026,8 +4054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="1276350"/>
-          <a:ext cx="252000" cy="252000"/>
+          <a:off x="1609334" y="1217335"/>
+          <a:ext cx="252000" cy="247778"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4072,101 +4100,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Rechteck: abgerundete Ecken 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611C1B62-3F6F-401D-8E34-99C01D87C796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209674" y="4152900"/>
-          <a:ext cx="2543175" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Udacity_MAILOUT_052018_TRAIN.csv</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628453</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -4189,8 +4124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="3857625"/>
-          <a:ext cx="1514475" cy="438150"/>
+          <a:off x="4801778" y="3768954"/>
+          <a:ext cx="777712" cy="429705"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4235,8 +4170,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589175</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4259,8 +4194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="4524375"/>
-          <a:ext cx="1514475" cy="438150"/>
+          <a:off x="4762500" y="4418814"/>
+          <a:ext cx="826515" cy="429706"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5026,8 +4961,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471340</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -5050,8 +4985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3989139" y="3758014"/>
-          <a:ext cx="10436072" cy="1449866"/>
+          <a:off x="4644665" y="3620777"/>
+          <a:ext cx="9728254" cy="1394970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5095,12 +5030,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443553</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3561809" cy="264560"/>
+    <xdr:ext cx="4106765" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="Textfeld 101">
@@ -5114,8 +5049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933825" y="3438525"/>
-          <a:ext cx="3561809" cy="264560"/>
+          <a:off x="4616878" y="3358299"/>
+          <a:ext cx="4106765" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5156,7 +5091,7 @@
                 <a:srgbClr val="3333FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(Crossvalidation + Gridsearch)</a:t>
+            <a:t>(Stratified Crossvalidation + Gridsearch)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100" b="1">
             <a:solidFill>
@@ -5569,7 +5504,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5587,14 +5522,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="91" idx="3"/>
           <a:endCxn id="92" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5610225" y="4071938"/>
-          <a:ext cx="476251" cy="671512"/>
+          <a:off x="5589015" y="3979044"/>
+          <a:ext cx="472716" cy="654623"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5627,7 +5563,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5645,14 +5581,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="90" idx="3"/>
           <a:endCxn id="92" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5600700" y="4071938"/>
-          <a:ext cx="485776" cy="4762"/>
+          <a:off x="5579490" y="3979044"/>
+          <a:ext cx="482241" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5681,13 +5618,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>558190</xdr:colOff>
+      <xdr:colOff>293058</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>577240</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304404</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5704,8 +5641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14799786" y="4068093"/>
-          <a:ext cx="1694532" cy="820183"/>
+          <a:off x="14482362" y="3917132"/>
+          <a:ext cx="846011" cy="792735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5762,7 +5699,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>558190</xdr:colOff>
+      <xdr:colOff>293058</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -5782,8 +5719,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14425211" y="4478185"/>
-          <a:ext cx="374575" cy="4762"/>
+          <a:off x="14372919" y="4313500"/>
+          <a:ext cx="109443" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5809,126 +5746,10 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="Verbinder: gewinkelt 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ED1781-65BA-43E9-BD6F-08B239355845}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="3"/>
-          <a:endCxn id="90" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3752849" y="4076700"/>
-          <a:ext cx="333376" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Verbinder: gewinkelt 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906BDD75-E591-48CE-ACC1-9A1173286AA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="3"/>
-          <a:endCxn id="91" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752849" y="4400550"/>
-          <a:ext cx="342901" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>481990</xdr:colOff>
+      <xdr:colOff>216858</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -5946,7 +5767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14723586" y="3815164"/>
+          <a:off x="14406162" y="3677927"/>
           <a:ext cx="922240" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5985,16 +5806,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>528225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11099</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6009,8 +5830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="3381375"/>
-          <a:ext cx="252000" cy="252000"/>
+          <a:off x="1680429" y="3148258"/>
+          <a:ext cx="252000" cy="243556"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6055,14 +5876,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>88823</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>221714</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594852</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6079,8 +5900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16843642" y="1747780"/>
-          <a:ext cx="970632" cy="1082637"/>
+          <a:off x="15485930" y="1686023"/>
+          <a:ext cx="967556" cy="1041466"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6118,7 +5939,7 @@
                 <a:srgbClr val="3333FF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Choice of model</a:t>
+            <a:t>Choice of model </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6127,14 +5948,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>529615</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68088</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>187174</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560312</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>151257</xdr:rowOff>
     </xdr:to>
@@ -6151,8 +5972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16446693" y="2048334"/>
-          <a:ext cx="495300" cy="489911"/>
+          <a:off x="15092057" y="1972853"/>
+          <a:ext cx="492224" cy="476188"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -6310,15 +6131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318458</xdr:colOff>
+      <xdr:colOff>318459</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>574139</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>111075</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>166172</xdr:rowOff>
+      <xdr:rowOff>166171</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6336,8 +6157,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14838000" y="1714731"/>
-          <a:ext cx="1375272" cy="3606645"/>
+          <a:off x="14157784" y="2242803"/>
+          <a:ext cx="1327239" cy="2296611"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6751,6 +6572,3356 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579353</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210627</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rechteck: abgerundete Ecken 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBAEE86-42AC-432D-80FC-82A5E8AE045E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083348" y="2028726"/>
+          <a:ext cx="1300604" cy="492158"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>drop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing rows (&gt; 100 feat. missing)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>432059</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579353</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Gerade Verbindung mit Pfeil 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A747FF3-ADDF-4916-A5E3-F89E28417EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2936054" y="2272205"/>
+          <a:ext cx="147294" cy="2600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382963</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343292</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rechteck: abgerundete Ecken 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD78F5D-3CE3-4D64-B91D-4C73AF5B1770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2052293" y="3770724"/>
+          <a:ext cx="794994" cy="425483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X_test</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>353501</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342994</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rechteck: abgerundete Ecken 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03AA62-DA8F-404D-8EA5-6153BC42A8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2022831" y="4430403"/>
+          <a:ext cx="824158" cy="429705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y_test</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394991</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628454</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Verbinder: gewinkelt 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3465D1-9A95-4D87-87DF-D8424FCE4BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3536253" y="2718281"/>
+          <a:ext cx="1462923" cy="1068128"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343292</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Verbinder: gewinkelt 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6636D82-4AB7-4C39-BFD5-DD7E4B76144D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2559178" y="2808994"/>
+          <a:ext cx="1462582" cy="886363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342994</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394990</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Verbinder: gewinkelt 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA8B42B-A98F-4417-9A05-DD964444E578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2228134" y="3139740"/>
+          <a:ext cx="2124372" cy="886661"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394991</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Verbinder: gewinkelt 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE53D19-3E2F-43FF-BADD-DD45D2EA617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3191684" y="3072670"/>
+          <a:ext cx="2112783" cy="1028850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307785</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628453</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Textfeld 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA24B07B-C823-31C3-B7E6-54C6D401B816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1977115" y="1221008"/>
+          <a:ext cx="1155333" cy="251930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Choose model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283432</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245489</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Textfeld 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839E4CF9-4D7C-43F6-B317-41EC74E757FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952762" y="3131114"/>
+          <a:ext cx="1631387" cy="251930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Hyperparameter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Tuning</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566786</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rechteck: abgerundete Ecken 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A14FB6-1008-4096-A63A-06779B89BD07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797064" y="5521946"/>
+          <a:ext cx="777712" cy="429705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X_test</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214362</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576311</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rechteck: abgerundete Ecken 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D763835B-DB4A-4B47-B8B2-6F6505E5F272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057017" y="5483846"/>
+          <a:ext cx="1196614" cy="496380"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Replace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> unknown values</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214362</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576311</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rechteck: abgerundete Ecken 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DAE9C0-B140-43DD-A552-B23C4164A20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057017" y="6200381"/>
+          <a:ext cx="1196614" cy="496381"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Drop specific</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>795387</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>319136</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rechteck: abgerundete Ecken 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE88F4FD-2343-430B-B035-37835AB9E824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7472707" y="5474321"/>
+          <a:ext cx="1193078" cy="496380"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing columns</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>795387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>319136</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rechteck: abgerundete Ecken 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59757D31-43EC-449B-9640-88296759DF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7472707" y="6181331"/>
+          <a:ext cx="1193078" cy="496381"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Handle high</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> correlation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61961</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rechteck: abgerundete Ecken 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D8484F-03D8-45F7-9627-0A6FCEC9B464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884861" y="5474321"/>
+          <a:ext cx="1193079" cy="496380"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Process youth years</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538212</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61961</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rechteck: abgerundete Ecken 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A99E5C5-811C-41CE-8711-AF7050DBD706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884861" y="6171806"/>
+          <a:ext cx="1193079" cy="496381"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Impute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> missing data</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271512</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>633461</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rechteck: abgerundete Ecken 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A872FB5-CC8D-4BD1-9A93-1DF93856BE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287491" y="5474321"/>
+          <a:ext cx="1196614" cy="496380"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Encode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Features</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271512</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>633461</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rechteck: abgerundete Ecken 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256CD863-D838-43F4-BB0B-B3886E10F666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287491" y="6166504"/>
+          <a:ext cx="1196614" cy="492158"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scaling Features</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>178901</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rechteck 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF1A149-B3EC-4D8E-A77F-5F90743C2050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4639951" y="5373769"/>
+          <a:ext cx="9728254" cy="1394970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814437</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Gerade Verbindung mit Pfeil 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398658AF-CCF3-494D-B212-BAF95D75B948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657092" y="5980226"/>
+          <a:ext cx="0" cy="220155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576311</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>795387</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Verbinder: gewinkelt 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B7FF89-C3F9-45E9-BEF8-B8AE018B6F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7253631" y="5722512"/>
+          <a:ext cx="219076" cy="726060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>319136</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538212</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Verbinder: gewinkelt 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1270806E-802D-45AB-A9F1-BA03703E3F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8665785" y="5722512"/>
+          <a:ext cx="219076" cy="707010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61961</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271512</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Verbinder: gewinkelt 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFABC8E8-220A-43EB-B41D-FACDAAC24471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10077940" y="5722512"/>
+          <a:ext cx="209551" cy="697485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557262</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557262</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Gerade Verbindung mit Pfeil 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E6F3EA-D1B2-4F34-B1C1-CB9307A8F1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069247" y="5970701"/>
+          <a:ext cx="0" cy="210630"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300087</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300087</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Gerade Verbindung mit Pfeil 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84F15F2-DD23-477F-BCC2-4F042D782C13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9481401" y="5970701"/>
+          <a:ext cx="0" cy="201105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33387</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Gerade Verbindung mit Pfeil 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD00BE-0FFA-4FD4-96BD-06FB091B001E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10884031" y="5970701"/>
+          <a:ext cx="0" cy="195803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566786</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214362</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Gerade Verbindung mit Pfeil 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32ADAE1-C06C-4AE2-BC35-6ABD06D7631F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5574776" y="5732036"/>
+          <a:ext cx="482241" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33502</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>395451</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rechteck: abgerundete Ecken 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF15F33-7E40-4A8D-A784-B0F0CE8037F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11718811" y="5807720"/>
+          <a:ext cx="1196614" cy="492157"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Undersampling</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>395451</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Gerade Verbindung mit Pfeil 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCEE132-0E89-49DF-8B1F-932AF360EF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="110" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915425" y="6050368"/>
+          <a:ext cx="156189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382962</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623738</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Verbinder: gewinkelt 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCBAF87-DBF4-4C93-B182-6BA5119A072A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="1"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="2052292" y="3983465"/>
+          <a:ext cx="2744771" cy="1753333"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8329"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>573035</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>97243</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Rechteck: abgerundete Ecken 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0B02B7-F1A5-423A-9E0C-AB21791FC028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13093009" y="5796462"/>
+          <a:ext cx="1193538" cy="492157"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="3333FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>467067</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599958</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rechteck: abgerundete Ecken 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E883F67F-0082-4CFF-A0BD-1125F448EE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15491036" y="3763062"/>
+          <a:ext cx="967556" cy="1041466"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="65F117">
+            <a:alpha val="27843"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Best Hyper-parameters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112473</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604697</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Pfeil: nach rechts 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7E3A3B-E792-457F-88B1-2FF1578208B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15136442" y="4059712"/>
+          <a:ext cx="492224" cy="476188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335139</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116180</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Verbinder: gewinkelt 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97187E16-1396-438C-B7F6-6B3D77740731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="2"/>
+          <a:endCxn id="131" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14336329" y="4157977"/>
+          <a:ext cx="991934" cy="2285036"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>225852</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215345</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rechteck: abgerundete Ecken 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC08E943-9AC7-41B8-A23E-A7E6E671A47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249821" y="6539845"/>
+          <a:ext cx="824158" cy="429705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y_test</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221139</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210632</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rechteck: abgerundete Ecken 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4360AC27-C2A9-43EC-BCE8-029106A02706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245108" y="6004876"/>
+          <a:ext cx="824158" cy="429704"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="3333FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y_pred</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>97243</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221139</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23568</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Verbinder: gewinkelt 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5491D7E-7135-42D1-986A-F3C6565635AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="131" idx="3"/>
+          <a:endCxn id="138" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14286547" y="6219293"/>
+          <a:ext cx="958561" cy="435"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>633461</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631809</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Verbinder: gewinkelt 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD3E2AC-8562-450B-A19D-9F3A4532AE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="110" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11484105" y="6299877"/>
+          <a:ext cx="833013" cy="112706"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>765580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>637931</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Verbinder: gewinkelt 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB18634-D630-4E22-AA35-18F697E38797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="137" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7993684" y="-698666"/>
+          <a:ext cx="2109442" cy="13226990"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 114096"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>756111</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>481162</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Rechteck: abgerundete Ecken 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31722616-5088-6091-E807-BE188D75F6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14945415" y="5852475"/>
+          <a:ext cx="1394381" cy="1217628"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3333FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589179</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>677555</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>58918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Textfeld 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F754FB-04DE-406F-8B26-3AA3D1DC7864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14778483" y="5430231"/>
+          <a:ext cx="1757706" cy="471342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Calculation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Evaluation Metrics (= Model Perf.)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526823</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>778823</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Ellipse 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DD85C0-F23F-427D-8AAA-7EFEB3028F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4700148" y="5215477"/>
+          <a:ext cx="252000" cy="243557"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770348</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190647" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Textfeld 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B55231-20D8-417E-A529-4C031AEB25DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943673" y="5197606"/>
+          <a:ext cx="1190647" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Evaluation</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176458</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="589469" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Textfeld 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A8FCA0-4A91-4CD4-BB38-CBDA9972588B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14365762" y="5988280"/>
+          <a:ext cx="589469" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Predict</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>492651</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>744651</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Ellipse 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB776F9D-6B33-41CF-AD58-4E61AC2349D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14681955" y="5564268"/>
+          <a:ext cx="252000" cy="243557"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F1E74F-4DDB-4500-8CED-DA439C2CF8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533524" y="1371599"/>
+          <a:ext cx="7324725" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>172241</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4985163" cy="746743"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB871890-EC4F-4DAF-A299-DB28BF2B1306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686841" y="514350"/>
+          <a:ext cx="4985163" cy="746743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 4007892"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 746743"/>
+                    <a:gd name="connsiteX1" fmla="*/ 4007892 w 4007892"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 746743"/>
+                    <a:gd name="connsiteX2" fmla="*/ 4007892 w 4007892"/>
+                    <a:gd name="connsiteY2" fmla="*/ 746743 h 746743"/>
+                    <a:gd name="connsiteX3" fmla="*/ 0 w 4007892"/>
+                    <a:gd name="connsiteY3" fmla="*/ 746743 h 746743"/>
+                    <a:gd name="connsiteX4" fmla="*/ 0 w 4007892"/>
+                    <a:gd name="connsiteY4" fmla="*/ 0 h 746743"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="4007892" h="746743" fill="none" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="597939" y="-49533"/>
+                        <a:pt x="2323177" y="-14809"/>
+                        <a:pt x="4007892" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4006386" y="337208"/>
+                        <a:pt x="3994356" y="479966"/>
+                        <a:pt x="4007892" y="746743"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2011366" y="698512"/>
+                        <a:pt x="561865" y="831198"/>
+                        <a:pt x="0" y="746743"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="18385" y="566095"/>
+                        <a:pt x="51821" y="81668"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                    <a:path w="4007892" h="746743" stroke="0" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="1901595" y="118645"/>
+                        <a:pt x="2761641" y="116012"/>
+                        <a:pt x="4007892" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4034576" y="170652"/>
+                        <a:pt x="4035109" y="387003"/>
+                        <a:pt x="4007892" y="746743"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="3142650" y="881343"/>
+                        <a:pt x="928588" y="589547"/>
+                        <a:pt x="0" y="746743"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="3921" y="532617"/>
+                        <a:pt x="34717" y="76206"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="ZF Sans Light" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Arvato</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="ZF Sans Light" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> Bertelsmann Capstone Project </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="ZF Sans Light" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>- Customer Segmentation &amp; ML</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="ZF Sans Light" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7066,19 +10237,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1610DD-F345-4072-B07D-F1FC8168FBD7}">
-  <dimension ref="H32"/>
+  <dimension ref="H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="32" spans="8:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="H32" s="1"/>
+    <row r="33" spans="8:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DB7557-D452-4C9F-9477-940D82CE2724}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>